--- a/nickel.xlsx
+++ b/nickel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\pea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A303A43-05F9-4355-A2B5-35E421835551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0437C384-E28C-4BED-8E05-55DF97DD692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="1980" windowWidth="18750" windowHeight="11865" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bb_2021" sheetId="1" r:id="rId1"/>
@@ -661,13 +661,20 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="[$-40C]mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -887,22 +894,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,14 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8863,7 +8871,7 @@
   <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,23 +8890,23 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9718,18 +9726,18 @@
       <c r="B12">
         <v>9.3281234076325603</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="I12" s="29" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="I12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -11815,25 +11823,25 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -14840,25 +14848,25 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -17857,62 +17865,62 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="M2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="G3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="M3" t="s">
         <v>131</v>
       </c>
@@ -18020,18 +18028,18 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="35" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="G10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
       <c r="M10">
         <v>3</v>
       </c>
@@ -18189,18 +18197,18 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="G17" s="35" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="G17" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -18309,28 +18317,28 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18356,62 +18364,62 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="N1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="G2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="N2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="G3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="N3" t="s">
         <v>173</v>
       </c>
@@ -18519,18 +18527,18 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="35" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="G10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
       <c r="N10">
         <v>3</v>
       </c>
@@ -18691,18 +18699,18 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="G17" s="35" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="G17" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -18803,28 +18811,28 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18860,10 +18868,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C321D4-95F1-45E3-99B2-7553D0D921A0}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18873,22 +18881,22 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
         <v>42370</v>
       </c>
       <c r="B2">
@@ -18900,9 +18908,21 @@
       <c r="D2">
         <v>9.061840364</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="F2" s="32">
+        <f>1.00176667953224</f>
+        <v>1.00176667953224</v>
+      </c>
+      <c r="G2">
+        <f>D2/F2</f>
+        <v>9.0458592296474585</v>
+      </c>
+      <c r="H2">
+        <f>G2*F2</f>
+        <v>9.061840364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <v>42401</v>
       </c>
       <c r="B3">
@@ -18915,8 +18935,8 @@
         <v>9.0501716200000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
         <v>42430</v>
       </c>
       <c r="B4">
@@ -18929,8 +18949,8 @@
         <v>9.0466442790000006</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>42461</v>
       </c>
       <c r="B5">
@@ -18943,8 +18963,8 @@
         <v>9.1532407800000009</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>42491</v>
       </c>
       <c r="B6">
@@ -18957,8 +18977,8 @@
         <v>9.0401449950000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>42522</v>
       </c>
       <c r="B7">
@@ -18971,8 +18991,8 @@
         <v>9.1532407800000009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>42552</v>
       </c>
       <c r="B8">
@@ -18985,8 +19005,8 @@
         <v>9.2714354710000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>42583</v>
       </c>
       <c r="B9">
@@ -18999,8 +19019,8 @@
         <v>9.1865598429999995</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>42614</v>
       </c>
       <c r="B10">
@@ -19013,8 +19033,8 @@
         <v>9.2662480039999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>42644</v>
       </c>
       <c r="B11">
@@ -19027,8 +19047,8 @@
         <v>9.2567467449999903</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>42675</v>
       </c>
       <c r="B12">
@@ -19041,8 +19061,8 @@
         <v>9.3281234079999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>42705</v>
       </c>
       <c r="B13">
@@ -19055,8 +19075,8 @@
         <v>9.2123383749999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>42736</v>
       </c>
       <c r="B14">
@@ -19069,8 +19089,8 @@
         <v>9.2058302160000007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>42767</v>
       </c>
       <c r="B15">
@@ -19083,8 +19103,8 @@
         <v>9.3038307150000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>42795</v>
       </c>
       <c r="B16">
@@ -19098,7 +19118,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="31">
         <v>42826</v>
       </c>
       <c r="B17">
@@ -19112,7 +19132,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="31">
         <v>42856</v>
       </c>
       <c r="B18">
@@ -19126,7 +19146,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="31">
         <v>42887</v>
       </c>
       <c r="B19">
@@ -19140,7 +19160,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="31">
         <v>42917</v>
       </c>
       <c r="B20">
@@ -19154,7 +19174,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="A21" s="31">
         <v>42948</v>
       </c>
       <c r="B21">
@@ -19168,7 +19188,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="31">
         <v>42979</v>
       </c>
       <c r="B22">
@@ -19182,7 +19202,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+      <c r="A23" s="31">
         <v>43009</v>
       </c>
       <c r="B23">
@@ -19196,7 +19216,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="A24" s="31">
         <v>43040</v>
       </c>
       <c r="B24">
@@ -19210,7 +19230,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+      <c r="A25" s="31">
         <v>43070</v>
       </c>
       <c r="B25">
@@ -19224,7 +19244,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="A26" s="31">
         <v>43101</v>
       </c>
       <c r="B26">
@@ -19238,7 +19258,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="A27" s="31">
         <v>43132</v>
       </c>
       <c r="B27">
@@ -19252,7 +19272,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+      <c r="A28" s="31">
         <v>43160</v>
       </c>
       <c r="B28">
@@ -19266,7 +19286,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+      <c r="A29" s="31">
         <v>43191</v>
       </c>
       <c r="B29">
@@ -19280,7 +19300,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+      <c r="A30" s="31">
         <v>43221</v>
       </c>
       <c r="B30">
@@ -19294,7 +19314,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="A31" s="31">
         <v>43252</v>
       </c>
       <c r="B31">
@@ -19308,7 +19328,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+      <c r="A32" s="31">
         <v>43282</v>
       </c>
       <c r="B32">
@@ -19322,7 +19342,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+      <c r="A33" s="31">
         <v>43313</v>
       </c>
       <c r="B33">
@@ -19336,7 +19356,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="31">
         <v>43344</v>
       </c>
       <c r="B34">
@@ -19350,7 +19370,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="31">
         <v>43374</v>
       </c>
       <c r="B35">
@@ -19364,7 +19384,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="31">
         <v>43405</v>
       </c>
       <c r="B36">
@@ -19378,7 +19398,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+      <c r="A37" s="31">
         <v>43435</v>
       </c>
       <c r="B37">
@@ -19392,7 +19412,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="31">
         <v>43466</v>
       </c>
       <c r="B38">
@@ -19406,7 +19426,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+      <c r="A39" s="31">
         <v>43497</v>
       </c>
       <c r="B39">
@@ -19420,7 +19440,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
+      <c r="A40" s="31">
         <v>43525</v>
       </c>
       <c r="B40">
@@ -19434,7 +19454,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="31">
         <v>43556</v>
       </c>
       <c r="B41">
@@ -19448,7 +19468,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
+      <c r="A42" s="31">
         <v>43586</v>
       </c>
       <c r="B42">
@@ -19462,7 +19482,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+      <c r="A43" s="31">
         <v>43617</v>
       </c>
       <c r="B43">
@@ -19476,7 +19496,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="31">
         <v>43647</v>
       </c>
       <c r="B44">
@@ -19490,7 +19510,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+      <c r="A45" s="31">
         <v>43678</v>
       </c>
       <c r="B45">
@@ -19504,7 +19524,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+      <c r="A46" s="31">
         <v>43709</v>
       </c>
       <c r="B46">
@@ -19518,7 +19538,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
+      <c r="A47" s="31">
         <v>43739</v>
       </c>
       <c r="B47">
@@ -19532,7 +19552,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
+      <c r="A48" s="31">
         <v>43770</v>
       </c>
       <c r="B48">
@@ -19546,7 +19566,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
+      <c r="A49" s="31">
         <v>43800</v>
       </c>
       <c r="B49">
@@ -19560,7 +19580,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
+      <c r="A50" s="31">
         <v>43831</v>
       </c>
       <c r="B50">
@@ -19574,7 +19594,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
+      <c r="A51" s="31">
         <v>43862</v>
       </c>
       <c r="B51">
@@ -19588,7 +19608,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+      <c r="A52" s="31">
         <v>43891</v>
       </c>
       <c r="B52">
@@ -19602,7 +19622,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
+      <c r="A53" s="31">
         <v>43922</v>
       </c>
       <c r="B53">
@@ -19616,7 +19636,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
+      <c r="A54" s="31">
         <v>43952</v>
       </c>
       <c r="B54">
@@ -19630,7 +19650,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
+      <c r="A55" s="31">
         <v>43983</v>
       </c>
       <c r="B55">
@@ -19644,7 +19664,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
+      <c r="A56" s="31">
         <v>44013</v>
       </c>
       <c r="B56">
@@ -19658,7 +19678,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="39">
+      <c r="A57" s="31">
         <v>44044</v>
       </c>
       <c r="B57">
@@ -19672,7 +19692,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+      <c r="A58" s="31">
         <v>44075</v>
       </c>
       <c r="B58">
@@ -19686,7 +19706,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+      <c r="A59" s="31">
         <v>44105</v>
       </c>
       <c r="B59">
@@ -19700,7 +19720,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
+      <c r="A60" s="31">
         <v>44136</v>
       </c>
       <c r="B60">
@@ -19714,7 +19734,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
+      <c r="A61" s="31">
         <v>44166</v>
       </c>
       <c r="B61">
@@ -19728,7 +19748,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="39">
+      <c r="A62" s="31">
         <v>44197</v>
       </c>
       <c r="B62">
@@ -19742,7 +19762,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
+      <c r="A63" s="31">
         <v>44228</v>
       </c>
       <c r="B63">
@@ -19756,7 +19776,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="39">
+      <c r="A64" s="31">
         <v>44256</v>
       </c>
       <c r="B64">
@@ -19770,7 +19790,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="39">
+      <c r="A65" s="31">
         <v>44287</v>
       </c>
       <c r="B65">
@@ -19784,7 +19804,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="39">
+      <c r="A66" s="31">
         <v>44317</v>
       </c>
       <c r="B66">
@@ -19798,7 +19818,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="39">
+      <c r="A67" s="31">
         <v>44348</v>
       </c>
       <c r="B67">
@@ -19812,7 +19832,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
+      <c r="A68" s="31">
         <v>44378</v>
       </c>
       <c r="B68">
@@ -19826,7 +19846,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="39">
+      <c r="A69" s="31">
         <v>44409</v>
       </c>
       <c r="B69">
@@ -19840,7 +19860,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="39">
+      <c r="A70" s="31">
         <v>44440</v>
       </c>
       <c r="B70">
@@ -19854,7 +19874,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
+      <c r="A71" s="31">
         <v>44470</v>
       </c>
       <c r="B71">
@@ -19868,7 +19888,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="39">
+      <c r="A72" s="31">
         <v>44501</v>
       </c>
       <c r="B72">
@@ -19882,7 +19902,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="39">
+      <c r="A73" s="31">
         <v>44531</v>
       </c>
       <c r="B73">

--- a/nickel.xlsx
+++ b/nickel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\pea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0437C384-E28C-4BED-8E05-55DF97DD692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D614FEAA-2D91-4D2F-90ED-DAB15D140FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="1980" windowWidth="18750" windowHeight="11865" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bb_2021" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="prevision_trad_2021" sheetId="4" r:id="rId4"/>
     <sheet name="racine_19" sheetId="5" r:id="rId5"/>
     <sheet name="racine_21" sheetId="6" r:id="rId6"/>
-    <sheet name="prevision" sheetId="7" r:id="rId7"/>
-    <sheet name="desaiso" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="prevision" sheetId="7" r:id="rId8"/>
+    <sheet name="desaiso" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -663,7 +664,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +714,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -863,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -933,6 +940,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8620,16 +8628,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17865,7 +17873,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -18364,8 +18372,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18559,14 +18567,14 @@
       <c r="B11" t="s">
         <v>146</v>
       </c>
-      <c r="C11">
-        <v>0.57645599999999997</v>
+      <c r="C11" s="19">
+        <v>0.34151599999999999</v>
       </c>
       <c r="G11" t="s">
         <v>147</v>
       </c>
-      <c r="H11">
-        <v>0.62621599999999999</v>
+      <c r="H11" s="41">
+        <v>0.37495899999999999</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -18588,15 +18596,15 @@
       <c r="B12" t="s">
         <v>148</v>
       </c>
-      <c r="C12">
-        <v>0.62948999999999999</v>
+      <c r="C12" s="19">
+        <v>0.38221100000000002</v>
       </c>
       <c r="G12" t="s">
         <v>149</v>
       </c>
       <c r="H12">
         <f>C19</f>
-        <v>0.64908959667286903</v>
+        <v>0.39385328020418697</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -18651,14 +18659,14 @@
       </c>
       <c r="C14">
         <f>((C12-C11)/2)/(C11/C13)</f>
-        <v>3.1280028310920538</v>
+        <v>4.05143536466813</v>
       </c>
       <c r="G14" t="s">
         <v>151</v>
       </c>
       <c r="H14">
         <f>((H12-H11)/2)/(H11/H13)</f>
-        <v>1.2601707481347995</v>
+        <v>1.7384638508328938</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -18718,7 +18726,7 @@
       </c>
       <c r="C18">
         <f>C11</f>
-        <v>0.57645599999999997</v>
+        <v>0.34151599999999999</v>
       </c>
       <c r="G18" t="s">
         <v>178</v>
@@ -18728,8 +18736,8 @@
       <c r="B19" t="s">
         <v>149</v>
       </c>
-      <c r="C19">
-        <v>0.64908959667286903</v>
+      <c r="C19" s="19">
+        <v>0.39385328020418697</v>
       </c>
       <c r="G19" t="s">
         <v>173</v>
@@ -18753,7 +18761,7 @@
       </c>
       <c r="C21">
         <f>((C19-C18)/3)/(C18/C20)</f>
-        <v>2.8560055313589103</v>
+        <v>3.4736635607943356</v>
       </c>
       <c r="G21" t="s">
         <v>135</v>
@@ -18849,11 +18857,25 @@
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2B2239-761B-4497-B59D-13D3E2BB8E05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18866,12 +18888,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C321D4-95F1-45E3-99B2-7553D0D921A0}">
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
